--- a/results/I3_N5_M2_T45_C100_DepLowerLeft_s2_mean_res.xlsx
+++ b/results/I3_N5_M2_T45_C100_DepLowerLeft_s2_mean_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1589.635913151522</v>
+        <v>1301.470284478263</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.4270000457763672</v>
+        <v>0.2960000038146973</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>39.99883577838754</v>
+        <v>54.35977435055383</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>22.27087920322154</v>
+        <v>22.02178934711761</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>17.727956575166</v>
+        <v>3.132299474826761</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1433.90000000119</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>120.28</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -584,23 +584,12 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>4</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -667,7 +656,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -689,7 +678,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -700,7 +689,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -711,7 +700,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -780,7 +769,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -791,7 +780,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -874,7 +863,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>31.76867181805997</v>
+        <v>32.93504247831763</v>
       </c>
     </row>
     <row r="4">
@@ -890,7 +879,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>41.7255036434951</v>
+        <v>17.99312545677582</v>
       </c>
     </row>
     <row r="6">
@@ -898,7 +887,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7">
@@ -906,7 +895,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>30</v>
+        <v>34.67685125555192</v>
       </c>
     </row>
     <row r="8">
@@ -936,7 +925,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -971,7 +960,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -982,57 +971,15 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="n">
-        <v>7</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="n">
-        <v>6</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1091,7 +1038,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>191.8560000000612</v>
+        <v>176.2</v>
       </c>
     </row>
     <row r="4">
@@ -1102,7 +1049,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>103.2440000000097</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5">
@@ -1113,7 +1060,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>235.5990000000885</v>
+        <v>120.6</v>
       </c>
     </row>
     <row r="6">
@@ -1124,7 +1071,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>107.7910000000071</v>
+        <v>63.2</v>
       </c>
     </row>
     <row r="7">
@@ -1135,7 +1082,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>150.783000000036</v>
+        <v>125.8</v>
       </c>
     </row>
     <row r="8">
@@ -1146,7 +1093,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>107.7910000000182</v>
+        <v>176.2</v>
       </c>
     </row>
     <row r="9">
@@ -1157,7 +1104,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>235.5990000001017</v>
+        <v>125.8</v>
       </c>
     </row>
   </sheetData>
@@ -1204,7 +1151,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>7.791000000017874</v>
+        <v>76.19999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -1215,7 +1162,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>135.5990000001011</v>
+        <v>25.8</v>
       </c>
     </row>
   </sheetData>
@@ -1273,7 +1220,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>12.028</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="4">
@@ -1284,7 +1231,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -1295,7 +1242,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="6">
@@ -1320,7 +1267,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1358,7 +1305,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" t="n">
         <v>1</v>
@@ -1369,34 +1316,12 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4" t="n">
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" t="n">
         <v>1</v>
       </c>
     </row>
